--- a/blackBoxes/MovesBlackBox.xlsx
+++ b/blackBoxes/MovesBlackBox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SehalizatkX\eclipse-workspace\Hnefatafl\blackBoxes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E64F4CD-0824-4645-9B1B-C144C40D6509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4C325B-5B72-4912-BCD8-E0CA5B27CFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{566F5487-9646-4CDD-83AD-150B2FD67964}"/>
   </bookViews>
@@ -34,12 +34,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+  <si>
+    <t>Clases de equivalencias NO Válidas</t>
+  </si>
+  <si>
+    <t>Clases de equivalencias Válidas</t>
+  </si>
+  <si>
+    <t>Casos de prueba</t>
+  </si>
+  <si>
+    <t>Valores límites</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Diagonal</t>
+  </si>
+  <si>
+    <t>Con ficha de por medio</t>
+  </si>
+  <si>
+    <t>Al mismo sitio</t>
+  </si>
+  <si>
+    <t>Hacia casilla ya ocupada</t>
+  </si>
+  <si>
+    <t>Hacia casilla Especial</t>
+  </si>
+  <si>
+    <t>Hacia fuera del tablero</t>
+  </si>
+  <si>
+    <t>Mover una casilla vacía</t>
+  </si>
+  <si>
+    <t>Movimiento de una pieza contraria</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t>TP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(casilla aleatoria)</t>
+    </r>
+  </si>
+  <si>
+    <t>MoveLogicTestCases (x, y, fx, fy)</t>
+  </si>
+  <si>
+    <t>3, 0, 3, 2</t>
+  </si>
+  <si>
+    <t>3, 0, 2, 0</t>
+  </si>
+  <si>
+    <t>3, 0, 4, 1</t>
+  </si>
+  <si>
+    <t>3, 0, 5, 3</t>
+  </si>
+  <si>
+    <t>3, 0, 3, 8</t>
+  </si>
+  <si>
+    <t>3, 0, 3, 5</t>
+  </si>
+  <si>
+    <t>3, 0, 3, 0</t>
+  </si>
+  <si>
+    <t>3, 0, 0, 0</t>
+  </si>
+  <si>
+    <t>7, 0, 12, 0</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 2</t>
+  </si>
+  <si>
+    <t>5, 3, 5, 2</t>
+  </si>
+  <si>
+    <t>"Movimiento válido"</t>
+  </si>
+  <si>
+    <t>"Movimiento no válido. No puedes mover diagonalmente"</t>
+  </si>
+  <si>
+    <t>"Movimiento no válido. No puedes al sitio en el que estás"</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,36 +175,55 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,18 +256,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFADD58A"/>
-        <bgColor rgb="FFADD58A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EFD4"/>
-        <bgColor rgb="FFE0EFD4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBCE4E5"/>
         <bgColor rgb="FFBCE4E5"/>
       </patternFill>
@@ -143,6 +270,48 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE5C5C"/>
+        <bgColor rgb="FFADD58A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF23232"/>
+        <bgColor rgb="FF62A73B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFE0EFD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFADD58A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFE0EFD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDD4CD"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -173,40 +342,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -214,6 +406,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFDD4CD"/>
+      <color rgb="FFF23232"/>
+      <color rgb="FFFF0101"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFE5C5C"/>
+      <color rgb="FFD02B1E"/>
+      <color rgb="FFCC0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -522,122 +727,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBF3296-EAAE-4D55-B6A2-E832F1301268}">
-  <dimension ref="A3:H12"/>
+  <dimension ref="A3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A6:D6"/>
+  <mergeCells count="9">
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/blackBoxes/MovesBlackBox.xlsx
+++ b/blackBoxes/MovesBlackBox.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SehalizatkX\eclipse-workspace\Hnefatafl\blackBoxes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4C325B-5B72-4912-BCD8-E0CA5B27CFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C38D88BF-5B15-46F5-BCBB-07C571E373AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{566F5487-9646-4CDD-83AD-150B2FD67964}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="MovesBlackBox" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Clases de equivalencias NO Válidas</t>
   </si>
@@ -110,6 +110,12 @@
     </r>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>MoveLogicTestCases (x, y, fx, fy)</t>
   </si>
   <si>
@@ -144,15 +150,6 @@
   </si>
   <si>
     <t>5, 3, 5, 2</t>
-  </si>
-  <si>
-    <t>"Movimiento válido"</t>
-  </si>
-  <si>
-    <t>"Movimiento no válido. No puedes mover diagonalmente"</t>
-  </si>
-  <si>
-    <t>"Movimiento no válido. No puedes al sitio en el que estás"</t>
   </si>
 </sst>
 </file>
@@ -730,7 +727,7 @@
   <dimension ref="A3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,12 +743,12 @@
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.28515625" customWidth="1"/>
+    <col min="12" max="12" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -835,11 +832,11 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -856,11 +853,11 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M8" s="1"/>
     </row>
@@ -960,11 +957,11 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -980,11 +977,11 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1000,11 +997,11 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,11 +1017,11 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1040,11 +1037,11 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1060,11 +1057,11 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,11 +1077,11 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1100,11 +1097,11 @@
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1120,11 +1117,11 @@
         <v>15</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/blackBoxes/MovesBlackBox.xlsx
+++ b/blackBoxes/MovesBlackBox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SehalizatkX\eclipse-workspace\Hnefatafl\blackBoxes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C38D88BF-5B15-46F5-BCBB-07C571E373AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{302B9E54-D395-46F8-A3C6-FABA9AE3065D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{566F5487-9646-4CDD-83AD-150B2FD67964}"/>
   </bookViews>
